--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,12 @@
     <t>a) Odyssey requirements. 
 b) C++ class generation. Introduction to C++ from edX.
 c) matrix operations. Matrix Algebra for Engineers on coursera.</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>a) Customer requirements document.</t>
   </si>
 </sst>
 </file>
@@ -65,13 +71,19 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,11 +155,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -157,26 +182,35 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +516,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +550,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>43621</v>
       </c>
       <c r="B2" s="6">
@@ -529,30 +563,51 @@
         <f>C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <f>C3-B3</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>43622</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4-B4</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>a) Print out test requirements.
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>a) Customer requirements document.</t>
+  </si>
+  <si>
+    <t>b) Software Requirements Specification document</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,92 +124,149 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -516,113 +573,137 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>43621</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <f>C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7">
+    <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12">
         <f>C3-B3</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>43622</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <f>C4-B4</f>
         <v>0.10416666666666674</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="A5" s="19">
+        <v>43623</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="21">
+        <f>C5-B5</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>7</v>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,20 +192,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -219,18 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -254,20 +239,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,12 +561,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
@@ -587,7 +575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -607,7 +595,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="21">
         <v>43621</v>
       </c>
       <c r="B2" s="4">
@@ -628,72 +616,79 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11">
+      <c r="A3" s="22"/>
+      <c r="B3" s="9">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <f>C3-B3</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>43622</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f>C4-B4</f>
         <v>0.10416666666666674</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>43623</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.5</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <f>C5-B5</f>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="24" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="23">
+        <f>C6-B6</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -60,7 +60,10 @@
     <t>a) Customer requirements document.</t>
   </si>
   <si>
-    <t>b) Software Requirements Specification document</t>
+    <t>c) Software Unit Test document.</t>
+  </si>
+  <si>
+    <t>b) Software Requirements Specification document.</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -158,33 +161,159 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -196,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -207,45 +336,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -254,9 +394,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,24 +708,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -584,10 +734,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -595,7 +745,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="26">
         <v>43621</v>
       </c>
       <c r="B2" s="4">
@@ -604,11 +754,11 @@
       <c r="C2" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D2" s="4">
-        <f>C2-B2</f>
+      <c r="D2" s="16">
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -616,89 +766,130 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="9">
+      <c r="A3" s="27"/>
+      <c r="B3" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="10">
-        <f>C3-B3</f>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="A4" s="8">
         <v>43622</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D4" s="14">
-        <f>C4-B4</f>
+      <c r="D4" s="18">
+        <f t="shared" si="0"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="26">
         <v>43623</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="11">
         <v>0.5</v>
       </c>
-      <c r="D5" s="18">
-        <f>C5-B5</f>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>12</v>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="2">
         <v>0.625</v>
       </c>
       <c r="C6" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="23">
-        <f>C6-B6</f>
+      <c r="D6" s="20">
+        <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>43624</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>b) Software Requirements Specification document.</t>
+  </si>
+  <si>
+    <t>Peer review</t>
+  </si>
+  <si>
+    <t>Ted Brown reviewed Odyssey-Software_Requirements_Specifications.pdf and Software_Unit_Tests.pdf.
+He provided Review_FRPjr.txt with comments.
+I responded with Review_FPJr_to_TB-v1.txt.</t>
   </si>
 </sst>
 </file>
@@ -97,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -317,6 +325,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -359,7 +380,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -376,37 +396,52 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,8 +754,8 @@
     <col min="1" max="1" width="27.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="35" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,16 +763,16 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -745,7 +780,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="28">
         <v>43621</v>
       </c>
       <c r="B2" s="4">
@@ -754,11 +789,11 @@
       <c r="C2" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D2" s="16">
-        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
+      <c r="D2" s="15">
+        <f t="shared" ref="D2:D9" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -766,18 +801,18 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="C3" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -794,11 +829,11 @@
       <c r="C4" s="9">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f t="shared" si="0"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -806,7 +841,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="28">
         <v>43623</v>
       </c>
       <c r="B5" s="11">
@@ -815,11 +850,11 @@
       <c r="C5" s="11">
         <v>0.5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -827,18 +862,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="2">
         <v>0.625</v>
       </c>
       <c r="C6" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -846,43 +881,64 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="28">
         <v>43624</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="24">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="25">
         <v>0.75</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="27" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>43625</v>
+      </c>
+      <c r="B9" s="38">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -72,6 +72,10 @@
     <t>Ted Brown reviewed Odyssey-Software_Requirements_Specifications.pdf and Software_Unit_Tests.pdf.
 He provided Review_FRPjr.txt with comments.
 I responded with Review_FPJr_to_TB-v1.txt.</t>
+  </si>
+  <si>
+    <t>b) Software Requirements Specification document.
+Revisions from peer review</t>
   </si>
 </sst>
 </file>
@@ -346,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -440,6 +444,15 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +803,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D2" s="15">
-        <f t="shared" ref="D2:D9" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
       <c r="E2" s="31" t="s">
@@ -921,7 +934,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="28">
         <v>43625</v>
       </c>
       <c r="B9" s="38">
@@ -941,11 +954,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="41">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>b) Software Requirements Specification document.
+Revisions from peer review</t>
+  </si>
+  <si>
+    <t>c) Software Unit Test document.
 Revisions from peer review</t>
   </si>
 </sst>
@@ -109,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -341,6 +345,76 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -350,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -407,12 +481,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,6 +522,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +872,7 @@
     <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="33" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,16 +880,16 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -793,7 +897,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="43">
         <v>43621</v>
       </c>
       <c r="B2" s="4">
@@ -803,10 +907,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D2" s="15">
-        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D12" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -814,7 +918,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="6">
         <v>0.58333333333333337</v>
       </c>
@@ -825,7 +929,7 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -846,7 +950,7 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -854,7 +958,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="43">
         <v>43623</v>
       </c>
       <c r="B5" s="11">
@@ -867,7 +971,7 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -875,7 +979,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2">
         <v>0.625</v>
       </c>
@@ -886,7 +990,7 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -894,7 +998,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="43">
         <v>43624</v>
       </c>
       <c r="B7" s="21">
@@ -907,7 +1011,7 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="23" t="s">
@@ -915,7 +1019,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="24">
         <v>0.66666666666666663</v>
       </c>
@@ -926,7 +1030,7 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="27" t="s">
@@ -934,51 +1038,106 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="43">
         <v>43625</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="36">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>0.61458333333333337</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="41">
+      <c r="A10" s="44"/>
+      <c r="B10" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>43626</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="48">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C12" s="49">
+        <v>0.6875</v>
+      </c>
+      <c r="D12" s="50">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -863,7 +863,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D2" s="15">
-        <f t="shared" ref="D2:D12" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D13" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -1122,8 +1122,13 @@
       <c r="B13" s="52">
         <v>0.75</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="52">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D13" s="53">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
       <c r="E13" s="46" t="s">
         <v>10</v>
       </c>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -80,6 +80,21 @@
   <si>
     <t>c) Software Unit Test document.
 Revisions from peer review</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>OSR_matrix.h, OSR_matrix.cpp, Odyssey_matrix.cpp</t>
+  </si>
+  <si>
+    <t>OSR_matrix.h - constructors, destructor, overloaded set_element(), overloaded get_element().
+Odyssey_matrix.cpp - test of overloaded set_element() and overloaded get_element().</t>
+  </si>
+  <si>
+    <t>OSR_matrix.h - Reworked overloaded set_element(), overloaded get_element().
+OSR_matrix.cpp - Put in all functions from OSR_matrix.h. Added overloaded operator= and overloaded operator+=.
+Odyssey_matrix.cpp - test of overloaded operator= and overloaded operator+=.</t>
   </si>
 </sst>
 </file>
@@ -410,12 +425,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -424,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -526,6 +543,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,30 +572,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +911,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="50">
         <v>43621</v>
       </c>
       <c r="B2" s="4">
@@ -907,7 +921,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D2" s="15">
-        <f t="shared" ref="D2:D13" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D15" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -918,7 +932,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="6">
         <v>0.58333333333333337</v>
       </c>
@@ -958,7 +972,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="50">
         <v>43623</v>
       </c>
       <c r="B5" s="11">
@@ -979,7 +993,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2">
         <v>0.625</v>
       </c>
@@ -998,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="50">
         <v>43624</v>
       </c>
       <c r="B7" s="21">
@@ -1019,7 +1033,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="24">
         <v>0.66666666666666663</v>
       </c>
@@ -1038,7 +1052,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="50">
         <v>43625</v>
       </c>
       <c r="B9" s="36">
@@ -1059,7 +1073,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>0.70833333333333337</v>
       </c>
@@ -1078,7 +1092,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="50">
         <v>43626</v>
       </c>
       <c r="B11" s="36">
@@ -1099,41 +1113,104 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="48">
+      <c r="A12" s="52"/>
+      <c r="B12" s="45">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="46">
         <v>0.6875</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
-      <c r="B13" s="52">
+      <c r="B13" s="39">
         <v>0.75</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="39">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="40">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="41" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>43627</v>
+      </c>
+      <c r="B14" s="48">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>43628</v>
+      </c>
+      <c r="B15" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>43629</v>
+      </c>
+      <c r="B16" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" ref="D16" si="1">C16-B16</f>
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>DATE</t>
   </si>
@@ -95,6 +95,26 @@
     <t>OSR_matrix.h - Reworked overloaded set_element(), overloaded get_element().
 OSR_matrix.cpp - Put in all functions from OSR_matrix.h. Added overloaded operator= and overloaded operator+=.
 Odyssey_matrix.cpp - test of overloaded operator= and overloaded operator+=.</t>
+  </si>
+  <si>
+    <t>OSR_matrix.h - Added overloaded operator* (scalar).
+OSR_matrix.cpp - Added overloaded operator* (scalar).
+Odessey_matrix.cpp - Test for  overloaded operator* (scalar).</t>
+  </si>
+  <si>
+    <t>Overloaded operator* (matrix).</t>
+  </si>
+  <si>
+    <t>OSR_matrix.h - Added overloaded operator* (matrix).
+OSR_matrix.cpp - Added overloaded operator* (matrix).</t>
+  </si>
+  <si>
+    <t>Overloaded Function Transpose.</t>
+  </si>
+  <si>
+    <t>OSR_matrix.h - Overloaded Function Transpose.
+OSR_matrix.cpp - Overloaded Function Transpose.
+Odessey_matrix.cpp - Test for  Overloaded Function Transpose.</t>
   </si>
 </sst>
 </file>
@@ -128,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -437,24 +457,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -467,7 +505,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,28 +512,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,12 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -564,14 +583,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,36 +933,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8" style="36" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="20" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="49"/>
+    <col min="10" max="10" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -911,100 +972,100 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="46">
         <v>43621</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="22">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="22">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:D15" si="0">C2-B2</f>
         <v>0.12500000000000006</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="6">
+      <c r="A3" s="48"/>
+      <c r="B3" s="38">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="38">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>43622</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>0.10416666666666674</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="46">
         <v>43623</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="22">
         <v>0.5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="24">
         <v>0.625</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1012,209 +1073,316 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="A7" s="46">
         <v>43624</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="39">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="39">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="24">
+      <c r="A8" s="48"/>
+      <c r="B8" s="41">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="38">
         <v>0.75</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="50">
+      <c r="A9" s="46">
         <v>43625</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="22">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="39">
+      <c r="A10" s="48"/>
+      <c r="B10" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="46">
         <v>43626</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="21">
         <v>0.5</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="45">
+      <c r="A12" s="47"/>
+      <c r="B12" s="30">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="31">
         <v>0.6875</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="32">
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="39">
+      <c r="A13" s="48"/>
+      <c r="B13" s="24">
         <v>0.75</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="24">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="25">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>43627</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="33">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>43628</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="33">
         <v>0.375</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>43629</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="33">
         <v>0.375</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>0.75</v>
       </c>
-      <c r="D16" s="17">
-        <f t="shared" ref="D16" si="1">C16-B16</f>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:D21" si="1">C16-B16</f>
         <v>0.375</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="34" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
+        <v>43630</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="42">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="42">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D18" s="43">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="24">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
+        <v>43631</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="24">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1222,18 +1390,475 @@
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B1" s="49">
+        <v>930</v>
+      </c>
+      <c r="C1" s="49">
+        <v>1230</v>
+      </c>
+      <c r="D1" s="49">
+        <f>C1-B1</f>
+        <v>300</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1400</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="49">
+        <f>C2-B2</f>
+        <v>500</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B3" s="49">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1530</v>
+      </c>
+      <c r="D3" s="49">
+        <f>C3-B3</f>
+        <v>230</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B4" s="49">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="49">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="49">
+        <f>C4-B4</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="B5" s="49">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="49">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="49">
+        <f>C5-B5</f>
+        <v>500</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B6" s="49">
+        <v>1230</v>
+      </c>
+      <c r="C6" s="49">
+        <v>1600</v>
+      </c>
+      <c r="D6" s="49">
+        <f>C6-B6</f>
+        <v>370</v>
+      </c>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B7" s="49">
+        <v>1600</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1800</v>
+      </c>
+      <c r="D7" s="49">
+        <f>C7-B7</f>
+        <v>200</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B8" s="49">
+        <v>1300</v>
+      </c>
+      <c r="C8" s="49">
+        <v>1445</v>
+      </c>
+      <c r="D8" s="49">
+        <f>C8-B8</f>
+        <v>145</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B9" s="49">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="49">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="49">
+        <f>C9-B9</f>
+        <v>300</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="49">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="49">
+        <f>C10-B10</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B11" s="49">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="49">
+        <v>1630</v>
+      </c>
+      <c r="D11" s="49">
+        <f>C11-B11</f>
+        <v>330</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="49">
+        <v>1800</v>
+      </c>
+      <c r="C12" s="49">
+        <v>1915</v>
+      </c>
+      <c r="D12" s="49">
+        <f>C12-B12</f>
+        <v>115</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B13" s="49">
+        <v>1300</v>
+      </c>
+      <c r="C13" s="49">
+        <v>1900</v>
+      </c>
+      <c r="D13" s="49">
+        <f>C13-B13</f>
+        <v>600</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B14" s="49">
+        <v>900</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1700</v>
+      </c>
+      <c r="D14" s="49">
+        <f>C14-B14</f>
+        <v>800</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B15" s="49">
+        <v>900</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1800</v>
+      </c>
+      <c r="D15" s="49">
+        <f>C15-B15</f>
+        <v>900</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="B16" s="49">
+        <v>1030</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1330</v>
+      </c>
+      <c r="D16" s="49">
+        <f>C16-B16</f>
+        <v>300</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="42">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="49">
+        <v>1500</v>
+      </c>
+      <c r="C17" s="49">
+        <v>1900</v>
+      </c>
+      <c r="D17" s="49">
+        <f>C17-B17</f>
+        <v>400</v>
+      </c>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B18" s="49">
+        <v>1900</v>
+      </c>
+      <c r="C18" s="49">
+        <v>2030</v>
+      </c>
+      <c r="D18" s="49">
+        <f>C18-B18</f>
+        <v>130</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B21" s="49">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B22" s="49">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B23" s="49">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B25" s="49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B26" s="49">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="B27" s="49">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="B28" s="49">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B29" s="49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B30" s="49">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>0.6875</v>
+      </c>
+      <c r="B31" s="49">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="B32" s="49">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B33" s="49">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B34" s="49">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="B35" s="49">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>0.5625</v>
+      </c>
+      <c r="B36" s="49">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="42">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B37" s="49">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B38" s="49">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="49"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="49"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="49"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="49"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Time_sheet.xlsx
+++ b/Time_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>DATE</t>
   </si>
@@ -115,6 +115,12 @@
     <t>OSR_matrix.h - Overloaded Function Transpose.
 OSR_matrix.cpp - Overloaded Function Transpose.
 Odessey_matrix.cpp - Test for  Overloaded Function Transpose.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>SRS and Unit Test</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,20 +622,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -936,7 +948,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +959,7 @@
     <col min="4" max="4" width="10.7109375" style="37" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="20" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="49"/>
+    <col min="7" max="7" width="9.140625" style="46"/>
     <col min="10" max="10" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -972,7 +984,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="49">
         <v>43621</v>
       </c>
       <c r="B2" s="22">
@@ -993,7 +1005,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="38">
         <v>0.58333333333333337</v>
       </c>
@@ -1033,7 +1045,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="49">
         <v>43623</v>
       </c>
       <c r="B5" s="22">
@@ -1054,7 +1066,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="24">
         <v>0.625</v>
       </c>
@@ -1073,7 +1085,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="49">
         <v>43624</v>
       </c>
       <c r="B7" s="39">
@@ -1094,7 +1106,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="41">
         <v>0.66666666666666663</v>
       </c>
@@ -1113,7 +1125,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="49">
         <v>43625</v>
       </c>
       <c r="B9" s="21">
@@ -1134,7 +1146,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="24">
         <v>0.70833333333333337</v>
       </c>
@@ -1153,7 +1165,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="49">
         <v>43626</v>
       </c>
       <c r="B11" s="21">
@@ -1174,7 +1186,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="30">
         <v>0.54166666666666663</v>
       </c>
@@ -1193,7 +1205,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="24">
         <v>0.75</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>0.75</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" ref="D16:D21" si="1">C16-B16</f>
+        <f t="shared" ref="D16:D23" si="1">C16-B16</f>
         <v>0.375</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -1275,7 +1287,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="49">
         <v>43630</v>
       </c>
       <c r="B17" s="21">
@@ -1296,7 +1308,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="42">
         <v>0.625</v>
       </c>
@@ -1315,7 +1327,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="24">
         <v>0.79166666666666663</v>
       </c>
@@ -1334,7 +1346,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="49">
         <v>43631</v>
       </c>
       <c r="B20" s="22">
@@ -1350,12 +1362,12 @@
       <c r="E20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="24">
         <v>0.54166666666666663</v>
       </c>
@@ -1373,6 +1385,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
+        <v>43632</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="41">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
     </row>
@@ -1380,7 +1432,8 @@
       <c r="A46" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A3"/>
@@ -1408,14 +1461,14 @@
       <c r="A1" s="22">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B1" s="49">
+      <c r="B1" s="46">
         <v>930</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="46">
         <v>1230</v>
       </c>
-      <c r="D1" s="49">
-        <f>C1-B1</f>
+      <c r="D1" s="46">
+        <f t="shared" ref="D1:D18" si="0">C1-B1</f>
         <v>300</v>
       </c>
       <c r="E1" s="11"/>
@@ -1424,14 +1477,14 @@
       <c r="A2" s="38">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="46">
         <v>1400</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="46">
         <v>1900</v>
       </c>
-      <c r="D2" s="49">
-        <f>C2-B2</f>
+      <c r="D2" s="46">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="E2" s="12"/>
@@ -1440,14 +1493,14 @@
       <c r="A3" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <v>1300</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="46">
         <v>1530</v>
       </c>
-      <c r="D3" s="49">
-        <f>C3-B3</f>
+      <c r="D3" s="46">
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="E3" s="10"/>
@@ -1456,14 +1509,14 @@
       <c r="A4" s="22">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <v>1000</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="46">
         <v>1200</v>
       </c>
-      <c r="D4" s="49">
-        <f>C4-B4</f>
+      <c r="D4" s="46">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E4" s="11"/>
@@ -1472,14 +1525,14 @@
       <c r="A5" s="24">
         <v>0.625</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="46">
         <v>1500</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="46">
         <v>2000</v>
       </c>
-      <c r="D5" s="49">
-        <f>C5-B5</f>
+      <c r="D5" s="46">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="E5" s="12"/>
@@ -1488,14 +1541,14 @@
       <c r="A6" s="39">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="46">
         <v>1230</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="46">
         <v>1600</v>
       </c>
-      <c r="D6" s="49">
-        <f>C6-B6</f>
+      <c r="D6" s="46">
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="E6" s="40"/>
@@ -1504,14 +1557,14 @@
       <c r="A7" s="41">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="46">
         <v>1600</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>1800</v>
       </c>
-      <c r="D7" s="49">
-        <f>C7-B7</f>
+      <c r="D7" s="46">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E7" s="12"/>
@@ -1520,14 +1573,14 @@
       <c r="A8" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="46">
         <v>1300</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="46">
         <v>1445</v>
       </c>
-      <c r="D8" s="49">
-        <f>C8-B8</f>
+      <c r="D8" s="46">
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="E8" s="11"/>
@@ -1536,14 +1589,14 @@
       <c r="A9" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="46">
         <v>1700</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="46">
         <v>2000</v>
       </c>
-      <c r="D9" s="49">
-        <f>C9-B9</f>
+      <c r="D9" s="46">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E9" s="25"/>
@@ -1552,14 +1605,14 @@
       <c r="A10" s="21">
         <v>0.5</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="46">
         <v>1200</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="46">
         <v>1300</v>
       </c>
-      <c r="D10" s="49">
-        <f>C10-B10</f>
+      <c r="D10" s="46">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E10" s="11"/>
@@ -1568,14 +1621,14 @@
       <c r="A11" s="30">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="46">
         <v>1300</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <v>1630</v>
       </c>
-      <c r="D11" s="49">
-        <f>C11-B11</f>
+      <c r="D11" s="46">
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="E11" s="32"/>
@@ -1584,14 +1637,14 @@
       <c r="A12" s="24">
         <v>0.75</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>1800</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="46">
         <v>1915</v>
       </c>
-      <c r="D12" s="49">
-        <f>C12-B12</f>
+      <c r="D12" s="46">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="E12" s="25"/>
@@ -1600,14 +1653,14 @@
       <c r="A13" s="33">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="46">
         <v>1300</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="46">
         <v>1900</v>
       </c>
-      <c r="D13" s="49">
-        <f>C13-B13</f>
+      <c r="D13" s="46">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="E13" s="10"/>
@@ -1616,14 +1669,14 @@
       <c r="A14" s="33">
         <v>0.375</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>900</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="46">
         <v>1700</v>
       </c>
-      <c r="D14" s="49">
-        <f>C14-B14</f>
+      <c r="D14" s="46">
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="E14" s="10"/>
@@ -1632,14 +1685,14 @@
       <c r="A15" s="33">
         <v>0.375</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="46">
         <v>900</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <v>1800</v>
       </c>
-      <c r="D15" s="49">
-        <f>C15-B15</f>
+      <c r="D15" s="46">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="E15" s="10"/>
@@ -1648,14 +1701,14 @@
       <c r="A16" s="21">
         <v>0.4375</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="46">
         <v>1030</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="46">
         <v>1330</v>
       </c>
-      <c r="D16" s="49">
-        <f>C16-B16</f>
+      <c r="D16" s="46">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E16" s="11"/>
@@ -1664,14 +1717,14 @@
       <c r="A17" s="42">
         <v>0.625</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="46">
         <v>1500</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="46">
         <v>1900</v>
       </c>
-      <c r="D17" s="49">
-        <f>C17-B17</f>
+      <c r="D17" s="46">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E17" s="43"/>
@@ -1680,33 +1733,33 @@
       <c r="A18" s="24">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="46">
         <v>1900</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="46">
         <v>2030</v>
       </c>
-      <c r="D18" s="49">
-        <f>C18-B18</f>
+      <c r="D18" s="46">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="46">
         <v>1230</v>
       </c>
     </row>
@@ -1714,7 +1767,7 @@
       <c r="A22" s="38">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="46">
         <v>1900</v>
       </c>
     </row>
@@ -1722,7 +1775,7 @@
       <c r="A23" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="46">
         <v>1530</v>
       </c>
     </row>
@@ -1730,7 +1783,7 @@
       <c r="A24" s="22">
         <v>0.5</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="46">
         <v>1200</v>
       </c>
     </row>
@@ -1738,7 +1791,7 @@
       <c r="A25" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="46">
         <v>2000</v>
       </c>
     </row>
@@ -1746,7 +1799,7 @@
       <c r="A26" s="39">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="46">
         <v>1600</v>
       </c>
     </row>
@@ -1754,7 +1807,7 @@
       <c r="A27" s="38">
         <v>0.75</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="46">
         <v>1800</v>
       </c>
     </row>
@@ -1762,7 +1815,7 @@
       <c r="A28" s="22">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="46">
         <v>1445</v>
       </c>
     </row>
@@ -1770,7 +1823,7 @@
       <c r="A29" s="24">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="46">
         <v>2000</v>
       </c>
     </row>
@@ -1778,7 +1831,7 @@
       <c r="A30" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="46">
         <v>1300</v>
       </c>
     </row>
@@ -1786,7 +1839,7 @@
       <c r="A31" s="31">
         <v>0.6875</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="46">
         <v>1630</v>
       </c>
     </row>
@@ -1794,7 +1847,7 @@
       <c r="A32" s="24">
         <v>0.80208333333333337</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="46">
         <v>1915</v>
       </c>
     </row>
@@ -1802,7 +1855,7 @@
       <c r="A33" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="46">
         <v>1900</v>
       </c>
     </row>
@@ -1810,7 +1863,7 @@
       <c r="A34" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="46">
         <v>1700</v>
       </c>
     </row>
@@ -1818,7 +1871,7 @@
       <c r="A35" s="5">
         <v>0.75</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="46">
         <v>1800</v>
       </c>
     </row>
@@ -1826,7 +1879,7 @@
       <c r="A36" s="22">
         <v>0.5625</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="46">
         <v>1330</v>
       </c>
     </row>
@@ -1834,7 +1887,7 @@
       <c r="A37" s="42">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="46">
         <v>1900</v>
       </c>
     </row>
@@ -1842,21 +1895,21 @@
       <c r="A38" s="24">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="46">
         <v>2030</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
+      <c r="B39" s="46"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
+      <c r="B40" s="46"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
+      <c r="B41" s="46"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
+      <c r="B42" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
